--- a/2016SuperRugby/Weekly Forecasts/Round_QF_Matrix.xlsx
+++ b/2016SuperRugby/Weekly Forecasts/Round_QF_Matrix.xlsx
@@ -9,27 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="8" r:id="rId1"/>
-    <sheet name="Projected Bracket" sheetId="9" r:id="rId2"/>
-    <sheet name="Possible Brackets" sheetId="10" r:id="rId3"/>
-    <sheet name="Summary" sheetId="11" r:id="rId4"/>
-    <sheet name="HURRICANES" sheetId="1" r:id="rId5"/>
-    <sheet name="LIONS" sheetId="2" r:id="rId6"/>
-    <sheet name="STORMERS" sheetId="3" r:id="rId7"/>
-    <sheet name="BRUMBIES" sheetId="4" r:id="rId8"/>
-    <sheet name="HIGHLANDERS" sheetId="5" r:id="rId9"/>
-    <sheet name="CHIEFS" sheetId="6" r:id="rId10"/>
-    <sheet name="CRUSADERS" sheetId="7" r:id="rId11"/>
+    <sheet name="Possible Brackets" sheetId="10" r:id="rId2"/>
+    <sheet name="Summary" sheetId="11" r:id="rId3"/>
+    <sheet name="HURRICANES" sheetId="1" r:id="rId4"/>
+    <sheet name="LIONS" sheetId="2" r:id="rId5"/>
+    <sheet name="STORMERS" sheetId="3" r:id="rId6"/>
+    <sheet name="BRUMBIES" sheetId="4" r:id="rId7"/>
+    <sheet name="HIGHLANDERS" sheetId="5" r:id="rId8"/>
+    <sheet name="CHIEFS" sheetId="6" r:id="rId9"/>
+    <sheet name="CRUSADERS" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="51">
   <si>
     <t>Chance of Winning</t>
   </si>
@@ -151,12 +150,6 @@
     <t>HIG</t>
   </si>
   <si>
-    <t>Champions</t>
-  </si>
-  <si>
-    <t>2016 SUPER RUGBY</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -183,14 +176,21 @@
   <si>
     <t>AUS</t>
   </si>
+  <si>
+    <t>HUR/HIG</t>
+  </si>
+  <si>
+    <t>HIG WIN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#0%"/>
     <numFmt numFmtId="165" formatCode="#0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -256,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,18 +313,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,257 +350,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,119 +393,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,436 +1025,6 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0.4966912</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.5033088</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.6398954</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.3601046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>32.586025800000002</v>
-      </c>
-      <c r="C3" s="11">
-        <v>32.727750200000003</v>
-      </c>
-      <c r="E3" s="11">
-        <v>28.129780400000001</v>
-      </c>
-      <c r="F3" s="11">
-        <v>21.726111199999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11">
-        <v>8</v>
-      </c>
-      <c r="F4" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11">
-        <v>14</v>
-      </c>
-      <c r="F6" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>20</v>
-      </c>
-      <c r="C7" s="11">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11">
-        <v>24</v>
-      </c>
-      <c r="C9" s="11">
-        <v>24</v>
-      </c>
-      <c r="E9" s="11">
-        <v>20</v>
-      </c>
-      <c r="F9" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11">
-        <v>26</v>
-      </c>
-      <c r="E10" s="11">
-        <v>22</v>
-      </c>
-      <c r="F10" s="11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
-        <v>28</v>
-      </c>
-      <c r="C11" s="11">
-        <v>28</v>
-      </c>
-      <c r="E11" s="11">
-        <v>23</v>
-      </c>
-      <c r="F11" s="11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
-        <v>30</v>
-      </c>
-      <c r="C12" s="11">
-        <v>30</v>
-      </c>
-      <c r="E12" s="11">
-        <v>25</v>
-      </c>
-      <c r="F12" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11">
-        <v>31</v>
-      </c>
-      <c r="E13" s="11">
-        <v>27</v>
-      </c>
-      <c r="F13" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <v>33</v>
-      </c>
-      <c r="C14" s="11">
-        <v>33</v>
-      </c>
-      <c r="E14" s="11">
-        <v>29</v>
-      </c>
-      <c r="F14" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11">
-        <v>35</v>
-      </c>
-      <c r="C15" s="11">
-        <v>36</v>
-      </c>
-      <c r="E15" s="11">
-        <v>31</v>
-      </c>
-      <c r="F15" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11">
-        <v>38</v>
-      </c>
-      <c r="C16" s="11">
-        <v>38</v>
-      </c>
-      <c r="E16" s="11">
-        <v>32</v>
-      </c>
-      <c r="F16" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11">
-        <v>39</v>
-      </c>
-      <c r="C17" s="11">
-        <v>39</v>
-      </c>
-      <c r="E17" s="11">
-        <v>34</v>
-      </c>
-      <c r="F17" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11">
-        <v>42</v>
-      </c>
-      <c r="C18" s="11">
-        <v>42</v>
-      </c>
-      <c r="E18" s="11">
-        <v>37</v>
-      </c>
-      <c r="F18" s="11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11">
-        <v>45</v>
-      </c>
-      <c r="C19" s="11">
-        <v>45</v>
-      </c>
-      <c r="E19" s="11">
-        <v>39</v>
-      </c>
-      <c r="F19" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11">
-        <v>48</v>
-      </c>
-      <c r="C20" s="11">
-        <v>48</v>
-      </c>
-      <c r="E20" s="11">
-        <v>42</v>
-      </c>
-      <c r="F20" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11">
-        <v>53</v>
-      </c>
-      <c r="C21" s="11">
-        <v>52</v>
-      </c>
-      <c r="E21" s="11">
-        <v>46</v>
-      </c>
-      <c r="F21" s="11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11">
-        <v>59</v>
-      </c>
-      <c r="C22" s="11">
-        <v>59</v>
-      </c>
-      <c r="E22" s="11">
-        <v>52</v>
-      </c>
-      <c r="F22" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0.20975540000000001</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.15247659999999999</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.30242140000000001</v>
-      </c>
-      <c r="F23" s="10">
-        <v>3.9384799999999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0.12883240000000001</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.1280966</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.1328008</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0.15507560000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
@@ -2085,324 +1298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.90625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="3.6328125" style="15" customWidth="1"/>
-    <col min="3" max="14" width="12.6328125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="3.6328125" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="36"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="36"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="36"/>
-    </row>
-    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="36"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="44">
-        <v>36</v>
-      </c>
-      <c r="I8" s="19">
-        <v>35</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="36"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="36"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="31"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="44">
-        <v>30</v>
-      </c>
-      <c r="G11" s="19">
-        <v>29</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="18">
-        <v>31</v>
-      </c>
-      <c r="K11" s="45">
-        <v>32</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="36"/>
-    </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="31"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="36"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="31"/>
-      <c r="C13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="36"/>
-    </row>
-    <row r="14" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="31"/>
-      <c r="C14" s="44">
-        <v>34</v>
-      </c>
-      <c r="D14" s="19">
-        <v>34</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="18">
-        <v>22</v>
-      </c>
-      <c r="G14" s="45">
-        <v>27</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="44">
-        <v>25</v>
-      </c>
-      <c r="K14" s="19">
-        <v>20</v>
-      </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="18">
-        <v>25</v>
-      </c>
-      <c r="N14" s="45">
-        <v>29</v>
-      </c>
-      <c r="O14" s="36"/>
-    </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J1664"/>
   <sheetViews>
-    <sheetView topLeftCell="A1647" workbookViewId="0">
-      <selection activeCell="G1135" sqref="G1135"/>
+    <sheetView tabSelected="1" topLeftCell="A1044" workbookViewId="0">
+      <selection activeCell="F1141" sqref="F1141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10005,39 +8904,74 @@
       <c r="G1040" s="14"/>
       <c r="H1040" s="14"/>
     </row>
+    <row r="1041" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1041" s="18"/>
+      <c r="B1041" s="18"/>
+      <c r="C1041" s="18"/>
+      <c r="D1041" s="18"/>
+      <c r="E1041" s="18"/>
+      <c r="F1041" s="18"/>
+      <c r="G1041" s="18"/>
+      <c r="H1041" s="18"/>
+    </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1042" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1042">
+      <c r="A1042" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1042" s="18">
         <f>B1029</f>
         <v>0.61387259999999999</v>
       </c>
+      <c r="C1042" s="18"/>
+      <c r="D1042" s="18"/>
+      <c r="E1042" s="18"/>
+      <c r="F1042" s="18"/>
+      <c r="G1042" s="18"/>
+      <c r="H1042" s="18"/>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1043" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1043" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1043" s="18"/>
+      <c r="C1043" s="18"/>
+      <c r="D1043" s="18"/>
+      <c r="E1043" s="18"/>
+      <c r="F1043" s="18"/>
+      <c r="G1043" s="18"/>
+      <c r="H1043" s="18"/>
+    </row>
+    <row r="1044" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1044" s="18"/>
+      <c r="B1044" s="18"/>
+      <c r="C1044" s="18"/>
+      <c r="D1044" s="18"/>
+      <c r="E1044" s="18"/>
+      <c r="F1044" s="18"/>
+      <c r="G1044" s="18"/>
+      <c r="H1044" s="18"/>
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1045" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1045">
+      <c r="A1045" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1045" s="18">
         <f>1-B1032</f>
         <v>0.5077644</v>
       </c>
-      <c r="D1045" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1045">
+      <c r="C1045" s="18"/>
+      <c r="D1045" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1045" s="18">
         <f>Matrix!G2</f>
         <v>0.47288770000000002</v>
       </c>
-      <c r="G1045" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1045">
+      <c r="F1045" s="18"/>
+      <c r="G1045" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1045" s="18">
         <f>Matrix!C2</f>
         <v>0.4632484</v>
       </c>
@@ -10047,87 +8981,180 @@
       </c>
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1046" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1046" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1046" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="A1046" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1046" s="18"/>
+      <c r="C1046" s="18"/>
+      <c r="D1046" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1046" s="18"/>
+      <c r="F1046" s="18"/>
+      <c r="G1046" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1046" s="18"/>
+    </row>
+    <row r="1047" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1047" s="18"/>
+      <c r="B1047" s="18"/>
+      <c r="C1047" s="18"/>
+      <c r="D1047" s="18"/>
+      <c r="E1047" s="18"/>
+      <c r="F1047" s="18"/>
+      <c r="G1047" s="18"/>
+      <c r="H1047" s="18"/>
     </row>
     <row r="1048" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1048" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1048">
+      <c r="A1048" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1048" s="18">
         <f>1-B1035</f>
         <v>0.57471179999999999</v>
       </c>
-      <c r="D1048" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1048">
+      <c r="C1048" s="18"/>
+      <c r="D1048" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1048" s="18">
         <f>Matrix!F3</f>
         <v>0.52183590000000002</v>
       </c>
+      <c r="F1048" s="18"/>
+      <c r="G1048" s="18"/>
+      <c r="H1048" s="18"/>
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1049" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1049" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1049" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1049" s="18"/>
+      <c r="C1049" s="18"/>
+      <c r="D1049" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1049" s="18"/>
+      <c r="F1049" s="18"/>
+      <c r="G1049" s="18"/>
+      <c r="H1049" s="18"/>
+    </row>
+    <row r="1050" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1050" s="18"/>
+      <c r="B1050" s="18"/>
+      <c r="C1050" s="18"/>
+      <c r="D1050" s="18"/>
+      <c r="E1050" s="18"/>
+      <c r="F1050" s="18"/>
+      <c r="G1050" s="18"/>
+      <c r="H1050" s="18"/>
     </row>
     <row r="1051" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1051" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1051">
+      <c r="A1051" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1051" s="18">
         <f>B1038</f>
         <v>0.61550689999999997</v>
       </c>
+      <c r="C1051" s="18"/>
+      <c r="D1051" s="18"/>
+      <c r="E1051" s="18"/>
+      <c r="F1051" s="18"/>
+      <c r="G1051" s="18"/>
+      <c r="H1051" s="18"/>
     </row>
     <row r="1052" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1052" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1052" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1052" s="18"/>
+      <c r="C1052" s="18"/>
+      <c r="D1052" s="18"/>
+      <c r="E1052" s="18"/>
+      <c r="F1052" s="18"/>
+      <c r="G1052" s="18"/>
+      <c r="H1052" s="18"/>
+    </row>
+    <row r="1053" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1053" s="18"/>
+      <c r="B1053" s="18"/>
+      <c r="C1053" s="18"/>
+      <c r="D1053" s="18"/>
+      <c r="E1053" s="18"/>
+      <c r="F1053" s="18"/>
+      <c r="G1053" s="18"/>
+      <c r="H1053" s="18"/>
+    </row>
+    <row r="1054" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1054" s="18"/>
+      <c r="B1054" s="18"/>
+      <c r="C1054" s="18"/>
+      <c r="D1054" s="18"/>
+      <c r="E1054" s="18"/>
+      <c r="F1054" s="18"/>
+      <c r="G1054" s="18"/>
+      <c r="H1054" s="18"/>
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1055" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1055">
+      <c r="A1055" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1055" s="18">
         <f>B1042</f>
         <v>0.61387259999999999</v>
       </c>
+      <c r="C1055" s="18"/>
+      <c r="D1055" s="18"/>
+      <c r="E1055" s="18"/>
+      <c r="F1055" s="18"/>
+      <c r="G1055" s="18"/>
+      <c r="H1055" s="18"/>
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1056" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1056" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1056" s="18"/>
+      <c r="C1056" s="18"/>
+      <c r="D1056" s="18"/>
+      <c r="E1056" s="18"/>
+      <c r="F1056" s="18"/>
+      <c r="G1056" s="18"/>
+      <c r="H1056" s="18"/>
+    </row>
+    <row r="1057" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1057" s="18"/>
+      <c r="B1057" s="18"/>
+      <c r="C1057" s="18"/>
+      <c r="D1057" s="18"/>
+      <c r="E1057" s="18"/>
+      <c r="F1057" s="18"/>
+      <c r="G1057" s="18"/>
+      <c r="H1057" s="18"/>
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1058" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1058">
+      <c r="A1058" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1058" s="18">
         <f>B1045</f>
         <v>0.5077644</v>
       </c>
-      <c r="D1058" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1058">
+      <c r="C1058" s="18"/>
+      <c r="D1058" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1058" s="18">
         <f>E1045</f>
         <v>0.47288770000000002</v>
       </c>
-      <c r="G1058" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1058">
+      <c r="F1058" s="18"/>
+      <c r="G1058" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1058" s="18">
         <f>1-H1045</f>
         <v>0.5367516</v>
       </c>
@@ -10137,97 +9164,180 @@
       </c>
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1059" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1059" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1059" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="A1059" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1059" s="18"/>
+      <c r="C1059" s="18"/>
+      <c r="D1059" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1059" s="18"/>
+      <c r="F1059" s="18"/>
+      <c r="G1059" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1059" s="18"/>
+    </row>
+    <row r="1060" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1060" s="18"/>
+      <c r="B1060" s="18"/>
+      <c r="C1060" s="18"/>
+      <c r="D1060" s="18"/>
+      <c r="E1060" s="18"/>
+      <c r="F1060" s="18"/>
+      <c r="G1060" s="18"/>
+      <c r="H1060" s="18"/>
     </row>
     <row r="1061" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1061" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1061">
+      <c r="A1061" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1061" s="18">
         <f>B1048</f>
         <v>0.57471179999999999</v>
       </c>
-      <c r="D1061" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1061">
+      <c r="C1061" s="18"/>
+      <c r="D1061" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1061" s="18">
         <f>E1048</f>
         <v>0.52183590000000002</v>
       </c>
+      <c r="F1061" s="18"/>
+      <c r="G1061" s="18"/>
+      <c r="H1061" s="18"/>
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1062" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1062" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1062" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1062" s="18"/>
+      <c r="C1062" s="18"/>
+      <c r="D1062" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1062" s="18"/>
+      <c r="F1062" s="18"/>
+      <c r="G1062" s="18"/>
+      <c r="H1062" s="18"/>
+    </row>
+    <row r="1063" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1063" s="18"/>
+      <c r="B1063" s="18"/>
+      <c r="C1063" s="18"/>
+      <c r="D1063" s="18"/>
+      <c r="E1063" s="18"/>
+      <c r="F1063" s="18"/>
+      <c r="G1063" s="18"/>
+      <c r="H1063" s="18"/>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1064" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1064">
+      <c r="A1064" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1064" s="18">
         <f>B1051</f>
         <v>0.61550689999999997</v>
       </c>
+      <c r="C1064" s="18"/>
+      <c r="D1064" s="18"/>
+      <c r="E1064" s="18"/>
+      <c r="F1064" s="18"/>
+      <c r="G1064" s="18"/>
+      <c r="H1064" s="18"/>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1065" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1065" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1065" s="18"/>
+      <c r="C1065" s="18"/>
+      <c r="D1065" s="18"/>
+      <c r="E1065" s="18"/>
+      <c r="F1065" s="18"/>
+      <c r="G1065" s="18"/>
+      <c r="H1065" s="18"/>
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1066" s="14"/>
-      <c r="B1066" s="14"/>
-      <c r="C1066" s="14"/>
-      <c r="D1066" s="14"/>
-      <c r="E1066" s="14"/>
-      <c r="F1066" s="14"/>
-      <c r="G1066" s="14"/>
-      <c r="H1066" s="14"/>
+      <c r="A1066" s="21"/>
+      <c r="B1066" s="21"/>
+      <c r="C1066" s="21"/>
+      <c r="D1066" s="21"/>
+      <c r="E1066" s="21"/>
+      <c r="F1066" s="21"/>
+      <c r="G1066" s="21"/>
+      <c r="H1066" s="21"/>
+    </row>
+    <row r="1067" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1067" s="18"/>
+      <c r="B1067" s="18"/>
+      <c r="C1067" s="18"/>
+      <c r="D1067" s="18"/>
+      <c r="E1067" s="18"/>
+      <c r="F1067" s="18"/>
+      <c r="G1067" s="18"/>
+      <c r="H1067" s="18"/>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1068" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1068">
+      <c r="A1068" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1068" s="18">
         <f>B1055</f>
         <v>0.61387259999999999</v>
       </c>
+      <c r="C1068" s="18"/>
+      <c r="D1068" s="18"/>
+      <c r="E1068" s="18"/>
+      <c r="F1068" s="18"/>
+      <c r="G1068" s="18"/>
+      <c r="H1068" s="18"/>
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1069" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1069" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1069" s="18"/>
+      <c r="C1069" s="18"/>
+      <c r="D1069" s="18"/>
+      <c r="E1069" s="18"/>
+      <c r="F1069" s="18"/>
+      <c r="G1069" s="18"/>
+      <c r="H1069" s="18"/>
+    </row>
+    <row r="1070" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1070" s="18"/>
+      <c r="B1070" s="18"/>
+      <c r="C1070" s="18"/>
+      <c r="D1070" s="18"/>
+      <c r="E1070" s="18"/>
+      <c r="F1070" s="18"/>
+      <c r="G1070" s="18"/>
+      <c r="H1070" s="18"/>
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1071" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1071">
+      <c r="A1071" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1071" s="18">
         <f>B1058</f>
         <v>0.5077644</v>
       </c>
-      <c r="D1071" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1071">
+      <c r="C1071" s="18"/>
+      <c r="D1071" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1071" s="18">
         <f>1-E1058</f>
         <v>0.52711229999999998</v>
       </c>
-      <c r="G1071" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1071">
+      <c r="F1071" s="18"/>
+      <c r="G1071" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1071" s="18">
         <f>Matrix!G3</f>
         <v>0.51123669999999999</v>
       </c>
@@ -10237,87 +9347,180 @@
       </c>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1072" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1072" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1072" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="A1072" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1072" s="18"/>
+      <c r="C1072" s="18"/>
+      <c r="D1072" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1072" s="18"/>
+      <c r="F1072" s="18"/>
+      <c r="G1072" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1072" s="18"/>
+    </row>
+    <row r="1073" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1073" s="18"/>
+      <c r="B1073" s="18"/>
+      <c r="C1073" s="18"/>
+      <c r="D1073" s="18"/>
+      <c r="E1073" s="18"/>
+      <c r="F1073" s="18"/>
+      <c r="G1073" s="18"/>
+      <c r="H1073" s="18"/>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1074" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1074">
+      <c r="A1074" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1074" s="18">
         <f>B1061</f>
         <v>0.57471179999999999</v>
       </c>
-      <c r="D1074" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1074">
+      <c r="C1074" s="18"/>
+      <c r="D1074" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1074" s="18">
         <f>E1061</f>
         <v>0.52183590000000002</v>
       </c>
+      <c r="F1074" s="18"/>
+      <c r="G1074" s="18"/>
+      <c r="H1074" s="18"/>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1075" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1075" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1075" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1075" s="18"/>
+      <c r="C1075" s="18"/>
+      <c r="D1075" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1075" s="18"/>
+      <c r="F1075" s="18"/>
+      <c r="G1075" s="18"/>
+      <c r="H1075" s="18"/>
+    </row>
+    <row r="1076" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1076" s="18"/>
+      <c r="B1076" s="18"/>
+      <c r="C1076" s="18"/>
+      <c r="D1076" s="18"/>
+      <c r="E1076" s="18"/>
+      <c r="F1076" s="18"/>
+      <c r="G1076" s="18"/>
+      <c r="H1076" s="18"/>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1077" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1077">
+      <c r="A1077" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1077" s="18">
         <f>B1064</f>
         <v>0.61550689999999997</v>
       </c>
+      <c r="C1077" s="18"/>
+      <c r="D1077" s="18"/>
+      <c r="E1077" s="18"/>
+      <c r="F1077" s="18"/>
+      <c r="G1077" s="18"/>
+      <c r="H1077" s="18"/>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1078" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1078" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1078" s="18"/>
+      <c r="C1078" s="18"/>
+      <c r="D1078" s="18"/>
+      <c r="E1078" s="18"/>
+      <c r="F1078" s="18"/>
+      <c r="G1078" s="18"/>
+      <c r="H1078" s="18"/>
+    </row>
+    <row r="1079" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1079" s="18"/>
+      <c r="B1079" s="18"/>
+      <c r="C1079" s="18"/>
+      <c r="D1079" s="18"/>
+      <c r="E1079" s="18"/>
+      <c r="F1079" s="18"/>
+      <c r="G1079" s="18"/>
+      <c r="H1079" s="18"/>
+    </row>
+    <row r="1080" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1080" s="18"/>
+      <c r="B1080" s="18"/>
+      <c r="C1080" s="18"/>
+      <c r="D1080" s="18"/>
+      <c r="E1080" s="18"/>
+      <c r="F1080" s="18"/>
+      <c r="G1080" s="18"/>
+      <c r="H1080" s="18"/>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1081" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1081">
+      <c r="A1081" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1081" s="18">
         <f>B1068</f>
         <v>0.61387259999999999</v>
       </c>
+      <c r="C1081" s="18"/>
+      <c r="D1081" s="18"/>
+      <c r="E1081" s="18"/>
+      <c r="F1081" s="18"/>
+      <c r="G1081" s="18"/>
+      <c r="H1081" s="18"/>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1082" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1082" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1082" s="18"/>
+      <c r="C1082" s="18"/>
+      <c r="D1082" s="18"/>
+      <c r="E1082" s="18"/>
+      <c r="F1082" s="18"/>
+      <c r="G1082" s="18"/>
+      <c r="H1082" s="18"/>
+    </row>
+    <row r="1083" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1083" s="18"/>
+      <c r="B1083" s="18"/>
+      <c r="C1083" s="18"/>
+      <c r="D1083" s="18"/>
+      <c r="E1083" s="18"/>
+      <c r="F1083" s="18"/>
+      <c r="G1083" s="18"/>
+      <c r="H1083" s="18"/>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1084" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1084">
+      <c r="A1084" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1084" s="18">
         <f>B1071</f>
         <v>0.5077644</v>
       </c>
-      <c r="D1084" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1084">
+      <c r="C1084" s="18"/>
+      <c r="D1084" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1084" s="18">
         <f>E1071</f>
         <v>0.52711229999999998</v>
       </c>
-      <c r="G1084" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1084">
+      <c r="F1084" s="18"/>
+      <c r="G1084" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1084" s="18">
         <f>1-H1071</f>
         <v>0.48876330000000001</v>
       </c>
@@ -10327,97 +9530,180 @@
       </c>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1085" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1085" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1085" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A1085" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1085" s="18"/>
+      <c r="C1085" s="18"/>
+      <c r="D1085" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1085" s="18"/>
+      <c r="F1085" s="18"/>
+      <c r="G1085" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1085" s="18"/>
+    </row>
+    <row r="1086" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1086" s="18"/>
+      <c r="B1086" s="18"/>
+      <c r="C1086" s="18"/>
+      <c r="D1086" s="18"/>
+      <c r="E1086" s="18"/>
+      <c r="F1086" s="18"/>
+      <c r="G1086" s="18"/>
+      <c r="H1086" s="18"/>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1087" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1087">
+      <c r="A1087" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1087" s="18">
         <f>B1074</f>
         <v>0.57471179999999999</v>
       </c>
-      <c r="D1087" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1087">
+      <c r="C1087" s="18"/>
+      <c r="D1087" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1087" s="18">
         <f>E1074</f>
         <v>0.52183590000000002</v>
       </c>
+      <c r="F1087" s="18"/>
+      <c r="G1087" s="18"/>
+      <c r="H1087" s="18"/>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1088" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1088" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1088" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1088" s="18"/>
+      <c r="C1088" s="18"/>
+      <c r="D1088" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1088" s="18"/>
+      <c r="F1088" s="18"/>
+      <c r="G1088" s="18"/>
+      <c r="H1088" s="18"/>
+    </row>
+    <row r="1089" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1089" s="18"/>
+      <c r="B1089" s="18"/>
+      <c r="C1089" s="18"/>
+      <c r="D1089" s="18"/>
+      <c r="E1089" s="18"/>
+      <c r="F1089" s="18"/>
+      <c r="G1089" s="18"/>
+      <c r="H1089" s="18"/>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1090" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1090">
+      <c r="A1090" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1090" s="18">
         <f>B1077</f>
         <v>0.61550689999999997</v>
       </c>
+      <c r="C1090" s="18"/>
+      <c r="D1090" s="18"/>
+      <c r="E1090" s="18"/>
+      <c r="F1090" s="18"/>
+      <c r="G1090" s="18"/>
+      <c r="H1090" s="18"/>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1091" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1091" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1091" s="18"/>
+      <c r="C1091" s="18"/>
+      <c r="D1091" s="18"/>
+      <c r="E1091" s="18"/>
+      <c r="F1091" s="18"/>
+      <c r="G1091" s="18"/>
+      <c r="H1091" s="18"/>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1092" s="14"/>
-      <c r="B1092" s="14"/>
-      <c r="C1092" s="14"/>
-      <c r="D1092" s="14"/>
-      <c r="E1092" s="14"/>
-      <c r="F1092" s="14"/>
-      <c r="G1092" s="14"/>
-      <c r="H1092" s="14"/>
+      <c r="A1092" s="21"/>
+      <c r="B1092" s="21"/>
+      <c r="C1092" s="21"/>
+      <c r="D1092" s="21"/>
+      <c r="E1092" s="21"/>
+      <c r="F1092" s="21"/>
+      <c r="G1092" s="21"/>
+      <c r="H1092" s="21"/>
+    </row>
+    <row r="1093" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1093" s="18"/>
+      <c r="B1093" s="18"/>
+      <c r="C1093" s="18"/>
+      <c r="D1093" s="18"/>
+      <c r="E1093" s="18"/>
+      <c r="F1093" s="18"/>
+      <c r="G1093" s="18"/>
+      <c r="H1093" s="18"/>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1094" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1094">
+      <c r="A1094" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1094" s="18">
         <f>B1081</f>
         <v>0.61387259999999999</v>
       </c>
+      <c r="C1094" s="18"/>
+      <c r="D1094" s="18"/>
+      <c r="E1094" s="18"/>
+      <c r="F1094" s="18"/>
+      <c r="G1094" s="18"/>
+      <c r="H1094" s="18"/>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1095" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1095" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1095" s="18"/>
+      <c r="C1095" s="18"/>
+      <c r="D1095" s="18"/>
+      <c r="E1095" s="18"/>
+      <c r="F1095" s="18"/>
+      <c r="G1095" s="18"/>
+      <c r="H1095" s="18"/>
+    </row>
+    <row r="1096" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1096" s="18"/>
+      <c r="B1096" s="18"/>
+      <c r="C1096" s="18"/>
+      <c r="D1096" s="18"/>
+      <c r="E1096" s="18"/>
+      <c r="F1096" s="18"/>
+      <c r="G1096" s="18"/>
+      <c r="H1096" s="18"/>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1097" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1097">
+      <c r="A1097" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1097" s="18">
         <f>B1084</f>
         <v>0.5077644</v>
       </c>
-      <c r="D1097" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1097">
+      <c r="C1097" s="18"/>
+      <c r="D1097" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1097" s="18">
         <f>1-E1084</f>
         <v>0.47288770000000002</v>
       </c>
-      <c r="G1097" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1097">
+      <c r="F1097" s="18"/>
+      <c r="G1097" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1097" s="18">
         <f>Matrix!F2</f>
         <v>0.47954289999999999</v>
       </c>
@@ -10427,87 +9713,180 @@
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1098" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1098" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1098" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1098" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1098" s="18"/>
+      <c r="C1098" s="18"/>
+      <c r="D1098" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1098" s="18"/>
+      <c r="F1098" s="18"/>
+      <c r="G1098" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1098" s="18"/>
+    </row>
+    <row r="1099" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1099" s="18"/>
+      <c r="B1099" s="18"/>
+      <c r="C1099" s="18"/>
+      <c r="D1099" s="18"/>
+      <c r="E1099" s="18"/>
+      <c r="F1099" s="18"/>
+      <c r="G1099" s="18"/>
+      <c r="H1099" s="18"/>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1100" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1100">
+      <c r="A1100" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1100" s="18">
         <f>B1087</f>
         <v>0.57471179999999999</v>
       </c>
-      <c r="D1100" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1100">
+      <c r="C1100" s="18"/>
+      <c r="D1100" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1100" s="18">
         <f>1-E1087</f>
         <v>0.47816409999999998</v>
       </c>
+      <c r="F1100" s="18"/>
+      <c r="G1100" s="18"/>
+      <c r="H1100" s="18"/>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1101" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1101" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1101" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1101" s="18"/>
+      <c r="C1101" s="18"/>
+      <c r="D1101" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1101" s="18"/>
+      <c r="F1101" s="18"/>
+      <c r="G1101" s="18"/>
+      <c r="H1101" s="18"/>
+    </row>
+    <row r="1102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1102" s="18"/>
+      <c r="B1102" s="18"/>
+      <c r="C1102" s="18"/>
+      <c r="D1102" s="18"/>
+      <c r="E1102" s="18"/>
+      <c r="F1102" s="18"/>
+      <c r="G1102" s="18"/>
+      <c r="H1102" s="18"/>
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1103" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1103">
+      <c r="A1103" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1103" s="18">
         <f>B1090</f>
         <v>0.61550689999999997</v>
       </c>
+      <c r="C1103" s="18"/>
+      <c r="D1103" s="18"/>
+      <c r="E1103" s="18"/>
+      <c r="F1103" s="18"/>
+      <c r="G1103" s="18"/>
+      <c r="H1103" s="18"/>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1104" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1104" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1104" s="18"/>
+      <c r="C1104" s="18"/>
+      <c r="D1104" s="18"/>
+      <c r="E1104" s="18"/>
+      <c r="F1104" s="18"/>
+      <c r="G1104" s="18"/>
+      <c r="H1104" s="18"/>
+    </row>
+    <row r="1105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1105" s="18"/>
+      <c r="B1105" s="18"/>
+      <c r="C1105" s="18"/>
+      <c r="D1105" s="18"/>
+      <c r="E1105" s="18"/>
+      <c r="F1105" s="18"/>
+      <c r="G1105" s="18"/>
+      <c r="H1105" s="18"/>
+    </row>
+    <row r="1106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1106" s="18"/>
+      <c r="B1106" s="18"/>
+      <c r="C1106" s="18"/>
+      <c r="D1106" s="18"/>
+      <c r="E1106" s="18"/>
+      <c r="F1106" s="18"/>
+      <c r="G1106" s="18"/>
+      <c r="H1106" s="18"/>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1107" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1107">
+      <c r="A1107" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1107" s="18">
         <f>B1094</f>
         <v>0.61387259999999999</v>
       </c>
+      <c r="C1107" s="18"/>
+      <c r="D1107" s="18"/>
+      <c r="E1107" s="18"/>
+      <c r="F1107" s="18"/>
+      <c r="G1107" s="18"/>
+      <c r="H1107" s="18"/>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1108" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1108" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1108" s="18"/>
+      <c r="C1108" s="18"/>
+      <c r="D1108" s="18"/>
+      <c r="E1108" s="18"/>
+      <c r="F1108" s="18"/>
+      <c r="G1108" s="18"/>
+      <c r="H1108" s="18"/>
+    </row>
+    <row r="1109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1109" s="18"/>
+      <c r="B1109" s="18"/>
+      <c r="C1109" s="18"/>
+      <c r="D1109" s="18"/>
+      <c r="E1109" s="18"/>
+      <c r="F1109" s="18"/>
+      <c r="G1109" s="18"/>
+      <c r="H1109" s="18"/>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1110" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1110">
+      <c r="A1110" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1110" s="18">
         <f>B1097</f>
         <v>0.5077644</v>
       </c>
-      <c r="D1110" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1110">
+      <c r="C1110" s="18"/>
+      <c r="D1110" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1110" s="18">
         <f>E1097</f>
         <v>0.47288770000000002</v>
       </c>
-      <c r="G1110" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1110">
+      <c r="F1110" s="18"/>
+      <c r="G1110" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1110" s="18">
         <f>1-H1097</f>
         <v>0.52045710000000001</v>
       </c>
@@ -10517,97 +9896,180 @@
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1111" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1111" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1111" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1111" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1111" s="18"/>
+      <c r="C1111" s="18"/>
+      <c r="D1111" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1111" s="18"/>
+      <c r="F1111" s="18"/>
+      <c r="G1111" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1111" s="18"/>
+    </row>
+    <row r="1112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1112" s="18"/>
+      <c r="B1112" s="18"/>
+      <c r="C1112" s="18"/>
+      <c r="D1112" s="18"/>
+      <c r="E1112" s="18"/>
+      <c r="F1112" s="18"/>
+      <c r="G1112" s="18"/>
+      <c r="H1112" s="18"/>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1113" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1113">
+      <c r="A1113" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1113" s="18">
         <f>B1100</f>
         <v>0.57471179999999999</v>
       </c>
-      <c r="D1113" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1113">
+      <c r="C1113" s="18"/>
+      <c r="D1113" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1113" s="18">
         <f>E1100</f>
         <v>0.47816409999999998</v>
       </c>
+      <c r="F1113" s="18"/>
+      <c r="G1113" s="18"/>
+      <c r="H1113" s="18"/>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1114" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1114" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1114" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1114" s="18"/>
+      <c r="C1114" s="18"/>
+      <c r="D1114" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1114" s="18"/>
+      <c r="F1114" s="18"/>
+      <c r="G1114" s="18"/>
+      <c r="H1114" s="18"/>
+    </row>
+    <row r="1115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1115" s="18"/>
+      <c r="B1115" s="18"/>
+      <c r="C1115" s="18"/>
+      <c r="D1115" s="18"/>
+      <c r="E1115" s="18"/>
+      <c r="F1115" s="18"/>
+      <c r="G1115" s="18"/>
+      <c r="H1115" s="18"/>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1116" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1116">
+      <c r="A1116" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1116" s="18">
         <f>B1103</f>
         <v>0.61550689999999997</v>
       </c>
+      <c r="C1116" s="18"/>
+      <c r="D1116" s="18"/>
+      <c r="E1116" s="18"/>
+      <c r="F1116" s="18"/>
+      <c r="G1116" s="18"/>
+      <c r="H1116" s="18"/>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1117" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1117" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1117" s="18"/>
+      <c r="C1117" s="18"/>
+      <c r="D1117" s="18"/>
+      <c r="E1117" s="18"/>
+      <c r="F1117" s="18"/>
+      <c r="G1117" s="18"/>
+      <c r="H1117" s="18"/>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1118" s="14"/>
-      <c r="B1118" s="14"/>
-      <c r="C1118" s="14"/>
-      <c r="D1118" s="14"/>
-      <c r="E1118" s="14"/>
-      <c r="F1118" s="14"/>
-      <c r="G1118" s="14"/>
-      <c r="H1118" s="14"/>
+      <c r="A1118" s="21"/>
+      <c r="B1118" s="21"/>
+      <c r="C1118" s="21"/>
+      <c r="D1118" s="21"/>
+      <c r="E1118" s="21"/>
+      <c r="F1118" s="21"/>
+      <c r="G1118" s="21"/>
+      <c r="H1118" s="21"/>
+    </row>
+    <row r="1119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1119" s="18"/>
+      <c r="B1119" s="18"/>
+      <c r="C1119" s="18"/>
+      <c r="D1119" s="18"/>
+      <c r="E1119" s="18"/>
+      <c r="F1119" s="18"/>
+      <c r="G1119" s="18"/>
+      <c r="H1119" s="18"/>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1120" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1120">
+      <c r="A1120" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1120" s="18">
         <f>B1107</f>
         <v>0.61387259999999999</v>
       </c>
+      <c r="C1120" s="18"/>
+      <c r="D1120" s="18"/>
+      <c r="E1120" s="18"/>
+      <c r="F1120" s="18"/>
+      <c r="G1120" s="18"/>
+      <c r="H1120" s="18"/>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1121" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1121" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1121" s="18"/>
+      <c r="C1121" s="18"/>
+      <c r="D1121" s="18"/>
+      <c r="E1121" s="18"/>
+      <c r="F1121" s="18"/>
+      <c r="G1121" s="18"/>
+      <c r="H1121" s="18"/>
+    </row>
+    <row r="1122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1122" s="18"/>
+      <c r="B1122" s="18"/>
+      <c r="C1122" s="18"/>
+      <c r="D1122" s="18"/>
+      <c r="E1122" s="18"/>
+      <c r="F1122" s="18"/>
+      <c r="G1122" s="18"/>
+      <c r="H1122" s="18"/>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1123" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1123">
+      <c r="A1123" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1123" s="18">
         <f>B1110</f>
         <v>0.5077644</v>
       </c>
-      <c r="D1123" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1123">
+      <c r="C1123" s="18"/>
+      <c r="D1123" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1123" s="18">
         <f>1-E1110</f>
         <v>0.52711229999999998</v>
       </c>
-      <c r="G1123" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1123">
+      <c r="F1123" s="18"/>
+      <c r="G1123" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1123" s="18">
         <f>Matrix!G6</f>
         <v>0.48774509999999999</v>
       </c>
@@ -10617,87 +10079,180 @@
       </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1124" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1124" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1124" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="A1124" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1124" s="18"/>
+      <c r="C1124" s="18"/>
+      <c r="D1124" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1124" s="18"/>
+      <c r="F1124" s="18"/>
+      <c r="G1124" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1124" s="18"/>
+    </row>
+    <row r="1125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1125" s="18"/>
+      <c r="B1125" s="18"/>
+      <c r="C1125" s="18"/>
+      <c r="D1125" s="18"/>
+      <c r="E1125" s="18"/>
+      <c r="F1125" s="18"/>
+      <c r="G1125" s="18"/>
+      <c r="H1125" s="18"/>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1126" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1126">
+      <c r="A1126" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1126" s="18">
         <f>B1113</f>
         <v>0.57471179999999999</v>
       </c>
-      <c r="D1126" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1126">
+      <c r="C1126" s="18"/>
+      <c r="D1126" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1126" s="18">
         <f>E1113</f>
         <v>0.47816409999999998</v>
       </c>
+      <c r="F1126" s="18"/>
+      <c r="G1126" s="18"/>
+      <c r="H1126" s="18"/>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1127" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1127" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1127" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1127" s="18"/>
+      <c r="C1127" s="18"/>
+      <c r="D1127" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1127" s="18"/>
+      <c r="F1127" s="18"/>
+      <c r="G1127" s="18"/>
+      <c r="H1127" s="18"/>
+    </row>
+    <row r="1128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1128" s="18"/>
+      <c r="B1128" s="18"/>
+      <c r="C1128" s="18"/>
+      <c r="D1128" s="18"/>
+      <c r="E1128" s="18"/>
+      <c r="F1128" s="18"/>
+      <c r="G1128" s="18"/>
+      <c r="H1128" s="18"/>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1129" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1129">
+      <c r="A1129" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1129" s="18">
         <f>B1116</f>
         <v>0.61550689999999997</v>
       </c>
+      <c r="C1129" s="18"/>
+      <c r="D1129" s="18"/>
+      <c r="E1129" s="18"/>
+      <c r="F1129" s="18"/>
+      <c r="G1129" s="18"/>
+      <c r="H1129" s="18"/>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1130" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1130" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1130" s="18"/>
+      <c r="C1130" s="18"/>
+      <c r="D1130" s="18"/>
+      <c r="E1130" s="18"/>
+      <c r="F1130" s="18"/>
+      <c r="G1130" s="18"/>
+      <c r="H1130" s="18"/>
+    </row>
+    <row r="1131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1131" s="18"/>
+      <c r="B1131" s="18"/>
+      <c r="C1131" s="18"/>
+      <c r="D1131" s="18"/>
+      <c r="E1131" s="18"/>
+      <c r="F1131" s="18"/>
+      <c r="G1131" s="18"/>
+      <c r="H1131" s="18"/>
+    </row>
+    <row r="1132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1132" s="18"/>
+      <c r="B1132" s="18"/>
+      <c r="C1132" s="18"/>
+      <c r="D1132" s="18"/>
+      <c r="E1132" s="18"/>
+      <c r="F1132" s="18"/>
+      <c r="G1132" s="18"/>
+      <c r="H1132" s="18"/>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1133" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1133">
+      <c r="A1133" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1133" s="18">
         <f>B1120</f>
         <v>0.61387259999999999</v>
       </c>
+      <c r="C1133" s="18"/>
+      <c r="D1133" s="18"/>
+      <c r="E1133" s="18"/>
+      <c r="F1133" s="18"/>
+      <c r="G1133" s="18"/>
+      <c r="H1133" s="18"/>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1134" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1134" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1134" s="18"/>
+      <c r="C1134" s="18"/>
+      <c r="D1134" s="18"/>
+      <c r="E1134" s="18"/>
+      <c r="F1134" s="18"/>
+      <c r="G1134" s="18"/>
+      <c r="H1134" s="18"/>
+    </row>
+    <row r="1135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1135" s="18"/>
+      <c r="B1135" s="18"/>
+      <c r="C1135" s="18"/>
+      <c r="D1135" s="18"/>
+      <c r="E1135" s="18"/>
+      <c r="F1135" s="18"/>
+      <c r="G1135" s="18"/>
+      <c r="H1135" s="18"/>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1136" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1136">
+      <c r="A1136" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1136" s="18">
         <f>B1123</f>
         <v>0.5077644</v>
       </c>
-      <c r="D1136" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1136">
+      <c r="C1136" s="18"/>
+      <c r="D1136" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1136" s="18">
         <f>E1123</f>
         <v>0.52711229999999998</v>
       </c>
-      <c r="G1136" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1136">
+      <c r="F1136" s="18"/>
+      <c r="G1136" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1136" s="18">
         <f>1-H1123</f>
         <v>0.51225490000000007</v>
       </c>
@@ -10707,63 +10262,111 @@
       </c>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1137" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1137" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1137" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A1137" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1137" s="18"/>
+      <c r="C1137" s="18"/>
+      <c r="D1137" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1137" s="18"/>
+      <c r="F1137" s="18"/>
+      <c r="G1137" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1137" s="18"/>
+    </row>
+    <row r="1138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1138" s="18"/>
+      <c r="B1138" s="18"/>
+      <c r="C1138" s="18"/>
+      <c r="D1138" s="18"/>
+      <c r="E1138" s="18"/>
+      <c r="F1138" s="18"/>
+      <c r="G1138" s="18"/>
+      <c r="H1138" s="18"/>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1139" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1139">
+      <c r="A1139" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1139" s="18">
         <f>B1126</f>
         <v>0.57471179999999999</v>
       </c>
-      <c r="D1139" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1139">
+      <c r="C1139" s="18"/>
+      <c r="D1139" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1139" s="18">
         <f>E1126</f>
         <v>0.47816409999999998</v>
       </c>
+      <c r="F1139" s="18"/>
+      <c r="G1139" s="18"/>
+      <c r="H1139" s="18"/>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1140" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1140" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1140" s="18"/>
+      <c r="C1140" s="18"/>
+      <c r="D1140" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1140" s="18"/>
+      <c r="F1140" s="18"/>
+      <c r="G1140" s="18"/>
+      <c r="H1140" s="18"/>
+    </row>
+    <row r="1141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1141" s="18"/>
+      <c r="B1141" s="18"/>
+      <c r="C1141" s="18"/>
+      <c r="D1141" s="18"/>
+      <c r="E1141" s="18"/>
+      <c r="F1141" s="18"/>
+      <c r="G1141" s="18"/>
+      <c r="H1141" s="18"/>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1142" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1142">
+      <c r="A1142" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1142" s="18">
         <f>B1129</f>
         <v>0.61550689999999997</v>
       </c>
+      <c r="C1142" s="18"/>
+      <c r="D1142" s="18"/>
+      <c r="E1142" s="18"/>
+      <c r="F1142" s="18"/>
+      <c r="G1142" s="18"/>
+      <c r="H1142" s="18"/>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1143" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1143" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1143" s="18"/>
+      <c r="C1143" s="18"/>
+      <c r="D1143" s="18"/>
+      <c r="E1143" s="18"/>
+      <c r="F1143" s="18"/>
+      <c r="G1143" s="18"/>
+      <c r="H1143" s="18"/>
     </row>
     <row r="1144" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1144" s="14"/>
-      <c r="B1144" s="14"/>
-      <c r="C1144" s="14"/>
-      <c r="D1144" s="14"/>
-      <c r="E1144" s="14"/>
-      <c r="F1144" s="14"/>
-      <c r="G1144" s="14"/>
-      <c r="H1144" s="14"/>
+      <c r="A1144" s="21"/>
+      <c r="B1144" s="21"/>
+      <c r="C1144" s="21"/>
+      <c r="D1144" s="21"/>
+      <c r="E1144" s="21"/>
+      <c r="F1144" s="21"/>
+      <c r="G1144" s="21"/>
+      <c r="H1144" s="21"/>
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1146" s="12" t="s">
@@ -14553,34 +14156,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -14603,18 +14206,25 @@
       <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="16">
         <v>0.16842351521852</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="52">
+        <v>46</v>
+      </c>
+      <c r="L2" s="15">
         <f>F2+SUM(F6:F8)</f>
         <v>0.62446792683982877</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="17">
+        <f>'Possible Brackets'!J993+'Possible Brackets'!J1006+'Possible Brackets'!J1097+'Possible Brackets'!J1110+'Possible Brackets'!J1149+'Possible Brackets'!J1162</f>
+        <v>7.0705713292754713E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -14637,18 +14247,25 @@
       <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="16">
         <v>0.162505002768182</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="52">
+        <v>47</v>
+      </c>
+      <c r="L3" s="15">
         <f>F3+F4+F9</f>
         <v>0.30820933618066698</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="17">
+        <f>'Possible Brackets'!J1006+'Possible Brackets'!J1110+'Possible Brackets'!J1162</f>
+        <v>3.6799290493778565E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -14671,18 +14288,18 @@
       <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="16">
         <v>0.16244500013823465</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="52">
+        <v>48</v>
+      </c>
+      <c r="L4" s="15">
         <f>F5</f>
         <v>6.7322736979504263E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -14705,11 +14322,11 @@
       <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="16">
         <v>0.14727818572373991</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -14732,11 +14349,11 @@
       <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="16">
         <v>0.14626122312938689</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -14759,11 +14376,11 @@
       <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="16">
         <v>9.0640859045951566E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -14782,11 +14399,11 @@
       <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="16">
         <v>6.7322736979504263E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -14805,13 +14422,13 @@
       <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="16">
         <v>5.5123476996480722E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
@@ -14834,7 +14451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
@@ -15999,7 +15616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
@@ -17017,7 +16634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
@@ -17888,7 +17505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
@@ -18605,6 +18222,583 @@
       </c>
       <c r="L24" s="10">
         <v>0.1545146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.48774509999999999</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.51225489999999996</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.48499609999999999</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.51500389999999996</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.65726530000000005</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.3427347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>27.517854799999999</v>
+      </c>
+      <c r="C3" s="11">
+        <v>28.1183254</v>
+      </c>
+      <c r="E3" s="11">
+        <v>25.992842</v>
+      </c>
+      <c r="F3" s="11">
+        <v>26.6573402</v>
+      </c>
+      <c r="H3" s="11">
+        <v>21.534876199999999</v>
+      </c>
+      <c r="I3" s="11">
+        <v>15.4211604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11">
+        <v>8</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11">
+        <v>11</v>
+      </c>
+      <c r="H5" s="11">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11">
+        <v>14</v>
+      </c>
+      <c r="H6" s="11">
+        <v>9</v>
+      </c>
+      <c r="I6" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11">
+        <v>15</v>
+      </c>
+      <c r="H7" s="11">
+        <v>11</v>
+      </c>
+      <c r="I7" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <v>16</v>
+      </c>
+      <c r="F8" s="11">
+        <v>17</v>
+      </c>
+      <c r="H8" s="11">
+        <v>14</v>
+      </c>
+      <c r="I8" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11">
+        <v>19</v>
+      </c>
+      <c r="H9" s="11">
+        <v>14</v>
+      </c>
+      <c r="I9" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11">
+        <v>20</v>
+      </c>
+      <c r="H10" s="11">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11">
+        <v>22</v>
+      </c>
+      <c r="F11" s="11">
+        <v>22</v>
+      </c>
+      <c r="H11" s="11">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11">
+        <v>23</v>
+      </c>
+      <c r="F12" s="11">
+        <v>24</v>
+      </c>
+      <c r="H12" s="11">
+        <v>19</v>
+      </c>
+      <c r="I12" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11">
+        <v>27</v>
+      </c>
+      <c r="E13" s="11">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11">
+        <v>25</v>
+      </c>
+      <c r="H13" s="11">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11">
+        <v>28</v>
+      </c>
+      <c r="E14" s="11">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11">
+        <v>27</v>
+      </c>
+      <c r="H14" s="11">
+        <v>22</v>
+      </c>
+      <c r="I14" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11">
+        <v>31</v>
+      </c>
+      <c r="E15" s="11">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11">
+        <v>29</v>
+      </c>
+      <c r="H15" s="11">
+        <v>23</v>
+      </c>
+      <c r="I15" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11">
+        <v>32</v>
+      </c>
+      <c r="E16" s="11">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11">
+        <v>31</v>
+      </c>
+      <c r="H16" s="11">
+        <v>25</v>
+      </c>
+      <c r="I16" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11">
+        <v>34</v>
+      </c>
+      <c r="E17" s="11">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11">
+        <v>33</v>
+      </c>
+      <c r="H17" s="11">
+        <v>27</v>
+      </c>
+      <c r="I17" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <v>36</v>
+      </c>
+      <c r="C18" s="11">
+        <v>36</v>
+      </c>
+      <c r="E18" s="11">
+        <v>34</v>
+      </c>
+      <c r="F18" s="11">
+        <v>35</v>
+      </c>
+      <c r="H18" s="11">
+        <v>28</v>
+      </c>
+      <c r="I18" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11">
+        <v>39</v>
+      </c>
+      <c r="E19" s="11">
+        <v>37</v>
+      </c>
+      <c r="F19" s="11">
+        <v>38</v>
+      </c>
+      <c r="H19" s="11">
+        <v>31</v>
+      </c>
+      <c r="I19" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>41</v>
+      </c>
+      <c r="C20" s="11">
+        <v>42</v>
+      </c>
+      <c r="E20" s="11">
+        <v>40</v>
+      </c>
+      <c r="F20" s="11">
+        <v>41</v>
+      </c>
+      <c r="H20" s="11">
+        <v>33</v>
+      </c>
+      <c r="I20" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <v>45</v>
+      </c>
+      <c r="C21" s="11">
+        <v>46</v>
+      </c>
+      <c r="E21" s="11">
+        <v>44</v>
+      </c>
+      <c r="F21" s="11">
+        <v>44</v>
+      </c>
+      <c r="H21" s="11">
+        <v>37</v>
+      </c>
+      <c r="I21" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <v>51</v>
+      </c>
+      <c r="C22" s="11">
+        <v>52</v>
+      </c>
+      <c r="E22" s="11">
+        <v>50</v>
+      </c>
+      <c r="F22" s="11">
+        <v>50</v>
+      </c>
+      <c r="H22" s="11">
+        <v>42</v>
+      </c>
+      <c r="I22" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.110795</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.182506</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.13346</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.14688960000000001</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.18776960000000001</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1.8277000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.1438132</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.14182420000000001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.14175260000000001</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.1383508</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.15009739999999999</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.18205640000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18624,31 +18818,22 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>30</v>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
         <v>25</v>
       </c>
       <c r="BI1" t="s">
@@ -18660,22 +18845,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="10">
-        <v>0.48774509999999999</v>
+        <v>0.4966912</v>
       </c>
       <c r="C2" s="10">
-        <v>0.51225489999999996</v>
+        <v>0.5033088</v>
       </c>
       <c r="E2" s="10">
-        <v>0.48499609999999999</v>
+        <v>0.6398954</v>
       </c>
       <c r="F2" s="10">
-        <v>0.51500389999999996</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.65726530000000005</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.3427347</v>
+        <v>0.3601046</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.35">
@@ -18683,22 +18862,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <v>27.517854799999999</v>
+        <v>32.586025800000002</v>
       </c>
       <c r="C3" s="11">
-        <v>28.1183254</v>
+        <v>32.727750200000003</v>
       </c>
       <c r="E3" s="11">
-        <v>25.992842</v>
+        <v>28.129780400000001</v>
       </c>
       <c r="F3" s="11">
-        <v>26.6573402</v>
-      </c>
-      <c r="H3" s="11">
-        <v>21.534876199999999</v>
-      </c>
-      <c r="I3" s="11">
-        <v>15.4211604</v>
+        <v>21.726111199999998</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.35">
@@ -18706,22 +18879,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11">
         <v>8</v>
       </c>
-      <c r="C4" s="11">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="F4" s="11">
         <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>8</v>
-      </c>
-      <c r="H4" s="11">
-        <v>5</v>
-      </c>
-      <c r="I4" s="11">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.35">
@@ -18729,22 +18896,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11">
         <v>9</v>
-      </c>
-      <c r="F5" s="11">
-        <v>11</v>
-      </c>
-      <c r="H5" s="11">
-        <v>8</v>
-      </c>
-      <c r="I5" s="11">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.35">
@@ -18752,22 +18913,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11">
         <v>14</v>
       </c>
-      <c r="C6" s="11">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11">
-        <v>12</v>
-      </c>
       <c r="F6" s="11">
-        <v>14</v>
-      </c>
-      <c r="H6" s="11">
-        <v>9</v>
-      </c>
-      <c r="I6" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.35">
@@ -18775,22 +18930,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11">
         <v>17</v>
       </c>
-      <c r="E7" s="11">
-        <v>14</v>
-      </c>
       <c r="F7" s="11">
-        <v>15</v>
-      </c>
-      <c r="H7" s="11">
-        <v>11</v>
-      </c>
-      <c r="I7" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.35">
@@ -18798,22 +18947,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11">
         <v>18</v>
       </c>
-      <c r="C8" s="11">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11">
-        <v>16</v>
-      </c>
       <c r="F8" s="11">
-        <v>17</v>
-      </c>
-      <c r="H8" s="11">
         <v>14</v>
-      </c>
-      <c r="I8" s="11">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.35">
@@ -18821,22 +18964,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="11">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
-        <v>20</v>
-      </c>
-      <c r="E9" s="11">
-        <v>18</v>
-      </c>
       <c r="F9" s="11">
-        <v>19</v>
-      </c>
-      <c r="H9" s="11">
-        <v>14</v>
-      </c>
-      <c r="I9" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.35">
@@ -18844,22 +18981,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11">
         <v>22</v>
       </c>
-      <c r="C10" s="11">
-        <v>22</v>
-      </c>
-      <c r="E10" s="11">
-        <v>19</v>
-      </c>
       <c r="F10" s="11">
-        <v>20</v>
-      </c>
-      <c r="H10" s="11">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.35">
@@ -18867,22 +18998,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="11">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11">
+        <v>28</v>
+      </c>
+      <c r="E11" s="11">
         <v>23</v>
       </c>
-      <c r="C11" s="11">
-        <v>23</v>
-      </c>
-      <c r="E11" s="11">
-        <v>22</v>
-      </c>
       <c r="F11" s="11">
-        <v>22</v>
-      </c>
-      <c r="H11" s="11">
         <v>17</v>
-      </c>
-      <c r="I11" s="11">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.35">
@@ -18890,22 +19015,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11">
         <v>25</v>
       </c>
-      <c r="C12" s="11">
-        <v>25</v>
-      </c>
-      <c r="E12" s="11">
-        <v>23</v>
-      </c>
       <c r="F12" s="11">
-        <v>24</v>
-      </c>
-      <c r="H12" s="11">
         <v>19</v>
-      </c>
-      <c r="I12" s="11">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.35">
@@ -18913,22 +19032,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="11">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11">
+        <v>31</v>
+      </c>
+      <c r="E13" s="11">
         <v>27</v>
       </c>
-      <c r="E13" s="11">
-        <v>25</v>
-      </c>
       <c r="F13" s="11">
-        <v>25</v>
-      </c>
-      <c r="H13" s="11">
         <v>20</v>
-      </c>
-      <c r="I13" s="11">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.35">
@@ -18936,22 +19049,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E14" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="11">
-        <v>27</v>
-      </c>
-      <c r="H14" s="11">
         <v>22</v>
-      </c>
-      <c r="I14" s="11">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.35">
@@ -18959,22 +19066,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11">
         <v>31</v>
       </c>
-      <c r="E15" s="11">
-        <v>28</v>
-      </c>
       <c r="F15" s="11">
-        <v>29</v>
-      </c>
-      <c r="H15" s="11">
         <v>23</v>
-      </c>
-      <c r="I15" s="11">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.35">
@@ -18982,206 +19083,152 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E16" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="11">
-        <v>31</v>
-      </c>
-      <c r="H16" s="11">
         <v>25</v>
       </c>
-      <c r="I16" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="11">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17" s="11">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E17" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" s="11">
-        <v>33</v>
-      </c>
-      <c r="H17" s="11">
         <v>27</v>
       </c>
-      <c r="I17" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" s="11">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E18" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" s="11">
-        <v>35</v>
-      </c>
-      <c r="H18" s="11">
-        <v>28</v>
-      </c>
-      <c r="I18" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="11">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C19" s="11">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E19" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="11">
-        <v>38</v>
-      </c>
-      <c r="H19" s="11">
         <v>31</v>
       </c>
-      <c r="I19" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C20" s="11">
+        <v>48</v>
+      </c>
+      <c r="E20" s="11">
         <v>42</v>
       </c>
-      <c r="E20" s="11">
-        <v>40</v>
-      </c>
       <c r="F20" s="11">
-        <v>41</v>
-      </c>
-      <c r="H20" s="11">
-        <v>33</v>
-      </c>
-      <c r="I20" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="11">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C21" s="11">
+        <v>52</v>
+      </c>
+      <c r="E21" s="11">
         <v>46</v>
       </c>
-      <c r="E21" s="11">
-        <v>44</v>
-      </c>
       <c r="F21" s="11">
-        <v>44</v>
-      </c>
-      <c r="H21" s="11">
-        <v>37</v>
-      </c>
-      <c r="I21" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C22" s="11">
+        <v>59</v>
+      </c>
+      <c r="E22" s="11">
         <v>52</v>
       </c>
-      <c r="E22" s="11">
-        <v>50</v>
-      </c>
       <c r="F22" s="11">
-        <v>50</v>
-      </c>
-      <c r="H22" s="11">
         <v>42</v>
       </c>
-      <c r="I22" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="10">
-        <v>0.110795</v>
+        <v>0.20975540000000001</v>
       </c>
       <c r="C23" s="10">
-        <v>0.182506</v>
+        <v>0.15247659999999999</v>
       </c>
       <c r="E23" s="10">
-        <v>0.13346</v>
+        <v>0.30242140000000001</v>
       </c>
       <c r="F23" s="10">
-        <v>0.14688960000000001</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.18776960000000001</v>
-      </c>
-      <c r="I23" s="10">
-        <v>1.8277000000000002E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3.9384799999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="10">
-        <v>0.1438132</v>
+        <v>0.12883240000000001</v>
       </c>
       <c r="C24" s="10">
-        <v>0.14182420000000001</v>
+        <v>0.1280966</v>
       </c>
       <c r="E24" s="10">
-        <v>0.14175260000000001</v>
+        <v>0.1328008</v>
       </c>
       <c r="F24" s="10">
-        <v>0.1383508</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.15009739999999999</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0.18205640000000001</v>
+        <v>0.15507560000000001</v>
       </c>
     </row>
   </sheetData>
